--- a/trials_nonsocial.xlsx
+++ b/trials_nonsocial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raimundbuehler/Desktop/RALT_PLD_english/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9748DA30-60C4-F449-AF94-8955F59501A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="20540" windowWidth="33600" xWindow="0" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Stim</t>
   </si>
@@ -31,48 +37,12 @@
     <t>CorrCat</t>
   </si>
   <si>
-    <t>Mandalas_new/neutral/Mandala4_neutral.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/happy/Mandala4_happy.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/angry/Mandala4_angry.mp4</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Mandalas_new/neutral/Mandala2_neutral.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/happy/Mandala2_happy.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/angry/Mandala2_angry.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/neutral/Mandala3_neutral.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/happy/Mandala3_happy.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/angry/Mandala3_angry.mp4</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Mandalas_new/neutral/Mandala1_neutral.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/happy/Mandala1_happy.mp4</t>
-  </si>
-  <si>
-    <t>Mandalas_new/angry/Mandala1_angry.mp4</t>
-  </si>
-  <si>
     <t>Mandalas/Neutral/01_neutral.mp4</t>
   </si>
   <si>
@@ -107,44 +77,52 @@
   </si>
   <si>
     <t>Mandalas/Angry/Angry_blur/02_angry_blur.mp4</t>
+  </si>
+  <si>
+    <t>Stimuli/neutral/Still.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/nonsocial/Right Tick.mp4</t>
+  </si>
+  <si>
+    <t>Stimuli/nonsocial/Wrong Tick.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF5CE638"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF5CE638"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -160,21 +138,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -474,26 +461,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="2" min="2" width="31.33203125"/>
-    <col customWidth="1" max="3" min="3" width="46.33203125"/>
-    <col customWidth="1" max="4" min="4" width="45.6640625"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,373 +493,373 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="J20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="J22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="4" spans="1:12">
-      <c r="A4" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L23" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="H4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="E10" s="2" t="n"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="E11" s="2" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="E12" s="2" t="n"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="E13" s="2" t="n"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="2" t="n"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="E15" s="2" t="n"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="E16" s="2" t="n"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="E19" s="2" t="n"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="E20" s="2" t="n"/>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="E21" s="2" t="n"/>
-      <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="E22" s="2" t="n"/>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="E23" s="2" t="n"/>
-      <c r="J23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="E24" s="2" t="n"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="E25" s="2" t="n"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="E26" s="2" t="n"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="E27" s="2" t="n"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="E28" s="2" t="n"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="E29" s="2" t="n"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="E30" s="2" t="n"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="E31" s="2" t="n"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="E32" s="2" t="n"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="E33" s="2" t="n"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="E34" s="2" t="n"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="E35" s="2" t="n"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="E36" s="2" t="n"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="E37" s="2" t="n"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="E38" s="2" t="n"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="E39" s="2" t="n"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="E40" s="2" t="n"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="E41" s="2" t="n"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="E42" s="2" t="n"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="E43" s="2" t="n"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="E44" s="2" t="n"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="E45" s="2" t="n"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="E46" s="2" t="n"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="E47" s="2" t="n"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="E48" s="2" t="n"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="E49" s="2" t="n"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="E50" s="2" t="n"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="E51" s="2" t="n"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="E52" s="2" t="n"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="E53" s="2" t="n"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="E54" s="2" t="n"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="E55" s="2" t="n"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="E56" s="2" t="n"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="E57" s="2" t="n"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="E58" s="2" t="n"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="E59" s="2" t="n"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="E60" s="2" t="n"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="E61" s="2" t="n"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="E62" s="2" t="n"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="E63" s="2" t="n"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="E64" s="2" t="n"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="E65" s="2" t="n"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="E66" s="2" t="n"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="E67" s="2" t="n"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="E68" s="2" t="n"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="E69" s="2" t="n"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="E70" s="2" t="n"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="E71" s="2" t="n"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="E72" s="2" t="n"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="E73" s="2" t="n"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="E74" s="2" t="n"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="E75" s="2" t="n"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="E76" s="2" t="n"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="E77" s="2" t="n"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="E78" s="2" t="n"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="E79" s="2" t="n"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="E80" s="2" t="n"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="E81" s="2" t="n"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="E82" s="2" t="n"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="E83" s="2" t="n"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="E84" s="2" t="n"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="E85" s="2" t="n"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="E86" s="2" t="n"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="E87" s="2" t="n"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="E88" s="2" t="n"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="E89" s="2" t="n"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="E90" s="2" t="n"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="E91" s="2" t="n"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>